--- a/Coopernico.xlsx
+++ b/Coopernico.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="ENTITY" sheetId="1" r:id="rId1"/>
     <sheet name="ROC-SROC" sheetId="2" r:id="rId2"/>
-    <sheet name="YEARINCOMESTATEMENT" sheetId="3" r:id="rId3"/>
-    <sheet name="YEARAPPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
+    <sheet name="FINANCIALSTATEMENTS" sheetId="3" r:id="rId3"/>
+    <sheet name="APPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
     <sheet name="BOARD" sheetId="5" r:id="rId5"/>
     <sheet name="PARTICIPATION" sheetId="6" r:id="rId6"/>
     <sheet name="MEMBER" sheetId="7" r:id="rId7"/>
-    <sheet name="DEDUCTIONFOROTHER" sheetId="8" r:id="rId8"/>
+    <sheet name="ALLOCATIONRESERVES" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,38 +31,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="128">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>OrganisationName</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coopérnico - Cooperativa de Desenvolvimento Sustentável, CRL </t>
   </si>
   <si>
-    <t>OrganisationURL</t>
-  </si>
-  <si>
     <t>https://www.coopernico.org/</t>
   </si>
   <si>
-    <t>typeOfOrganisation</t>
-  </si>
-  <si>
     <t>Cooperativa</t>
   </si>
   <si>
     <t>branch</t>
   </si>
   <si>
-    <t>Energias Renováveis</t>
-  </si>
-  <si>
-    <t>Eficiência Energética</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -78,48 +63,18 @@
     <t>resultsSurpluses</t>
   </si>
   <si>
-    <t>profitsThirdPartyResults</t>
-  </si>
-  <si>
-    <t>profitsExtraordinaryResults</t>
-  </si>
-  <si>
     <t>yearNetProfit</t>
   </si>
   <si>
-    <t>deductionForLegalReserve</t>
-  </si>
-  <si>
-    <t>deductionForEducationAndTrainingReserve</t>
-  </si>
-  <si>
     <t>retainedEarnings</t>
   </si>
   <si>
     <t>interestPayment</t>
   </si>
   <si>
-    <t>allocationToVoluntaryReserves</t>
-  </si>
-  <si>
-    <t>totalOrganisationRefunds</t>
-  </si>
-  <si>
-    <t>lossTreatmentLiabilities</t>
-  </si>
-  <si>
-    <t>lossTreatmentLossesGeneratedByMembers</t>
-  </si>
-  <si>
     <t>allocatioOfProfitsIndivisiblesReserves</t>
   </si>
   <si>
-    <t>deliversRefunds</t>
-  </si>
-  <si>
-    <t>appliesOtherDeduction</t>
-  </si>
-  <si>
     <t>DED1</t>
   </si>
   <si>
@@ -132,9 +87,6 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Assembleia Geral </t>
-  </si>
-  <si>
     <t>Direção</t>
   </si>
   <si>
@@ -294,9 +246,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>percentageTotalOrganisationRefunds</t>
-  </si>
-  <si>
     <t>participatesInBoard</t>
   </si>
   <si>
@@ -424,13 +373,55 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesa da Assembleia Geral </t>
+  </si>
+  <si>
+    <t>profitsNonMemberyResults</t>
+  </si>
+  <si>
+    <t>profitsExtraEntityResults</t>
+  </si>
+  <si>
+    <t>allocationForLegalReserve</t>
+  </si>
+  <si>
+    <t>allocationForEducationAndTrainingReserve</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesDebts</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesLosses</t>
+  </si>
+  <si>
+    <t>distributionOfReturns</t>
+  </si>
+  <si>
+    <t>otherDeduction</t>
+  </si>
+  <si>
+    <t>typeOfEntity</t>
+  </si>
+  <si>
+    <t>entityName</t>
+  </si>
+  <si>
+    <t>entityURL</t>
+  </si>
+  <si>
+    <t>serviços</t>
+  </si>
+  <si>
+    <t>amountOfRefunds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -452,19 +443,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -558,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -586,7 +576,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -595,6 +584,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -947,12 +938,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -967,43 +958,38 @@
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1035,13 +1021,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="17"/>
     </row>
@@ -1060,49 +1046,49 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>12</v>
+      <c r="A1" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>13</v>
+      <c r="A2" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" s="17">
         <v>23339.69</v>
@@ -1122,85 +1108,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="17"/>
+        <v>122</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="B10" s="17"/>
     </row>
-    <row r="11" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
+    <row r="11" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1216,7 +1194,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1234,22 +1212,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1262,39 +1240,39 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B4" s="17">
         <v>3</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E4" s="17">
         <v>3</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H4" s="17">
         <v>5</v>
@@ -1302,94 +1280,94 @@
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B8" s="17"/>
       <c r="D8" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="D9" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1397,10 +1375,10 @@
     </row>
     <row r="11" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
@@ -1417,10 +1395,10 @@
     </row>
     <row r="13" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
@@ -1429,7 +1407,7 @@
     </row>
     <row r="14" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B14" s="17">
         <v>9</v>
@@ -1441,10 +1419,10 @@
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1453,10 +1431,10 @@
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
@@ -1465,10 +1443,10 @@
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
@@ -1477,10 +1455,10 @@
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
@@ -1489,10 +1467,10 @@
     </row>
     <row r="19" spans="1:8" s="11" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
@@ -1501,10 +1479,10 @@
     </row>
     <row r="20" spans="1:8" s="11" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
@@ -1513,10 +1491,10 @@
     </row>
     <row r="21" spans="1:8" s="11" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
@@ -1525,10 +1503,10 @@
     </row>
     <row r="22" spans="1:8" s="11" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
@@ -1537,10 +1515,10 @@
     </row>
     <row r="23" spans="1:8" s="11" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
@@ -1549,7 +1527,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -1561,7 +1539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
@@ -1583,35 +1561,35 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="20"/>
+      <c r="E2" s="19"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
       <c r="J2" s="1"/>
@@ -1619,124 +1597,124 @@
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B3" s="17"/>
       <c r="D3" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E3" s="17"/>
       <c r="G3" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H3" s="17"/>
       <c r="J3" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="10"/>
       <c r="D4" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="10"/>
       <c r="G4" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="10"/>
       <c r="J4" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>69</v>
+        <v>52</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="H6" s="22"/>
       <c r="I6" s="10"/>
       <c r="J6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>72</v>
+        <v>55</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1767,35 +1745,35 @@
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="19"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="J11" s="8"/>
@@ -1803,109 +1781,109 @@
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B12" s="17"/>
       <c r="D12" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E12" s="17"/>
       <c r="G12" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H12" s="17"/>
       <c r="J12" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B13" s="17"/>
       <c r="D13" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E13" s="17"/>
       <c r="G13" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H13" s="17"/>
       <c r="J13" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="B16" s="22"/>
       <c r="D16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="E16" s="22"/>
       <c r="G16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="J16" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
@@ -1935,35 +1913,35 @@
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="19"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
       <c r="J20" s="8"/>
@@ -1971,109 +1949,109 @@
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B21" s="17"/>
       <c r="D21" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E21" s="17"/>
       <c r="G21" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H21" s="17"/>
       <c r="J21" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B22" s="17"/>
       <c r="D22" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E22" s="17"/>
       <c r="G22" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H22" s="17"/>
       <c r="J22" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>76</v>
+        <v>52</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="B25" s="22"/>
       <c r="D25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="E25" s="22"/>
       <c r="G25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H25" s="22"/>
       <c r="J25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
@@ -2103,35 +2081,35 @@
     </row>
     <row r="28" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="10" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="19"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
       <c r="J29" s="8"/>
@@ -2139,137 +2117,137 @@
     </row>
     <row r="30" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B30" s="17"/>
       <c r="D30" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E30" s="17"/>
       <c r="G30" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H30" s="17"/>
       <c r="J30" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="K30" s="17"/>
     </row>
     <row r="31" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B31" s="17"/>
       <c r="D31" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H31" s="17"/>
       <c r="J31" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H32" s="17"/>
       <c r="J32" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="B34" s="22"/>
       <c r="D34" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="E34" s="22"/>
       <c r="G34" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H34" s="22"/>
       <c r="J34" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="K34" s="22"/>
     </row>
     <row r="37" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="10" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="19"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
       <c r="J38" s="8"/>
@@ -2277,108 +2255,108 @@
     </row>
     <row r="39" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B39" s="17"/>
       <c r="D39" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E39" s="17"/>
       <c r="G39" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H39" s="17"/>
       <c r="J39" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="K39" s="17"/>
     </row>
     <row r="40" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B40" s="17"/>
       <c r="D40" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E40" s="17"/>
       <c r="G40" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H40" s="17"/>
       <c r="J40" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K40" s="17"/>
     </row>
     <row r="41" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B41" s="17"/>
       <c r="D41" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E41" s="17"/>
       <c r="G41" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H41" s="17"/>
       <c r="J41" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K41" s="17"/>
     </row>
     <row r="42" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="B43" s="22"/>
       <c r="D43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="E43" s="22"/>
       <c r="G43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="H43" s="22"/>
       <c r="J43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K43" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="K43" s="22"/>
     </row>
     <row r="46" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
@@ -2392,8 +2370,8 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" s="10" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2407,7 +2385,7 @@
     </row>
     <row r="48" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B48" s="17"/>
       <c r="D48" s="4"/>
@@ -2423,7 +2401,7 @@
     </row>
     <row r="49" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B49" s="17"/>
       <c r="D49" s="4"/>
@@ -2439,7 +2417,7 @@
     </row>
     <row r="50" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B50" s="17"/>
       <c r="D50" s="4"/>
@@ -2455,35 +2433,35 @@
     </row>
     <row r="51" spans="1:13" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="24"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="24"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="5"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="24"/>
+      <c r="K51" s="23"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" s="10" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="B52" s="22"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="24"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="5"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="24"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="5"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="24"/>
+      <c r="K52" s="23"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
@@ -2549,8 +2527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD33"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" activeCellId="2" sqref="A54 D54 G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2568,22 +2546,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,110 +2570,110 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B4" s="24"/>
       <c r="D4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="E4" s="24"/>
       <c r="G4" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="B6" s="24"/>
       <c r="D6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="E6" s="24"/>
       <c r="G6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>31</v>
+        <v>71</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2708,110 +2686,110 @@
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>93</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>94</v>
+        <v>17</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B12" s="24"/>
       <c r="D12" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="E12" s="24"/>
       <c r="G12" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>96</v>
+        <v>69</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>96</v>
+        <v>69</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>96</v>
+        <v>69</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="B14" s="24"/>
       <c r="D14" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="G14" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>97</v>
+        <v>72</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2824,110 +2802,110 @@
     </row>
     <row r="19" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B20" s="24"/>
       <c r="D20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="E20" s="24"/>
       <c r="G20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="B22" s="24"/>
       <c r="D22" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="E22" s="24"/>
       <c r="G22" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>103</v>
+        <v>72</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>104</v>
+        <v>72</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>105</v>
+        <v>72</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2940,110 +2918,110 @@
     </row>
     <row r="27" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>106</v>
+        <v>17</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>107</v>
+        <v>17</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>108</v>
+        <v>17</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B28" s="24"/>
       <c r="D28" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="E28" s="24"/>
       <c r="G28" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="B30" s="24"/>
       <c r="D30" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="E30" s="24"/>
       <c r="G30" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>109</v>
+        <v>72</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>110</v>
+        <v>72</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>111</v>
+        <v>72</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3056,108 +3034,108 @@
     </row>
     <row r="35" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>95</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>113</v>
+        <v>17</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>114</v>
+        <v>17</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B36" s="24"/>
       <c r="D36" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="E36" s="24"/>
       <c r="G36" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>96</v>
+        <v>69</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="B38" s="24"/>
       <c r="D38" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="E38" s="24"/>
       <c r="G38" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H38" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>115</v>
+        <v>72</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>116</v>
+        <v>72</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>117</v>
+        <v>72</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3170,106 +3148,106 @@
     </row>
     <row r="43" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>118</v>
+        <v>17</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>119</v>
+        <v>17</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B44" s="24"/>
       <c r="D44" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="E44" s="24"/>
       <c r="G44" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H44" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="H44" s="24"/>
     </row>
     <row r="45" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>96</v>
+        <v>69</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="E45" s="24"/>
       <c r="G45" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="B46" s="24"/>
       <c r="D46" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="E46" s="24"/>
       <c r="G46" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="H46" s="24"/>
     </row>
     <row r="47" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>121</v>
+        <v>72</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>122</v>
+        <v>72</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>123</v>
+        <v>72</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="10" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3282,84 +3260,84 @@
     </row>
     <row r="51" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>125</v>
+        <v>17</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>126</v>
+        <v>17</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="B52" s="24"/>
       <c r="D52" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="E52" s="24"/>
       <c r="G52" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H52" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="H52" s="24"/>
     </row>
     <row r="53" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="B53" s="24"/>
       <c r="D53" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="E53" s="24"/>
       <c r="G53" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="H53" s="24"/>
     </row>
     <row r="54" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="B54" s="24"/>
       <c r="D54" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="E54" s="24"/>
       <c r="G54" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H54" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3417,10 +3395,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -3435,10 +3413,10 @@
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -3449,7 +3427,7 @@
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B4" s="17">
         <v>5000</v>
